--- a/QRPH/CCG/StructureDefinition-ccg-di-encounter.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-di-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3173,7 +3173,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>155</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>191</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>213</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>237</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>247</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>261</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>270</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>278</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>283</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>297</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>334</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>444</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>452</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>475</v>
       </c>
@@ -10759,12 +10759,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN78">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
